--- a/チェックリスト/仕様書/チュートリアル.xlsx
+++ b/チェックリスト/仕様書/チュートリアル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56EFFD5-0B98-4224-80EF-AB241027697D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB1A8E-9290-4DF4-A8D7-0E10765E2204}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>開始時</t>
     <rPh sb="0" eb="2">
@@ -471,19 +471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>失敗したらロボットを置くから再出現</t>
-    <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>サイシュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>射撃フェーズ開始時の演出を入れる</t>
     <rPh sb="0" eb="2">
       <t>シャゲキ</t>
@@ -658,7 +645,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真が取れれば博士のテキストでＯＫじゃ！を表示。射撃フェーズに移動時の演出を入れ次にフェード</t>
+    <t>ドローン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｙボタンで武器切り替え</t>
+    <rPh sb="5" eb="7">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナイパーでドローンを撃ったらクリア</t>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aを押したらドローン出現</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真が取れれば博士のテキストでＯＫじゃ！を表示。次にフェード</t>
     <rPh sb="0" eb="2">
       <t>シャシン</t>
     </rPh>
@@ -671,23 +692,28 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="24" eb="26">
-      <t>シャゲキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="24" eb="25">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗したらロボットを奥から再出現</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイシュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンは移動しないようにする</t>
+    <rPh sb="5" eb="7">
       <t>イドウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ツギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1483,15 +1509,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロボットとの戦いでは足が大事じゃ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>まずジープの動かし方を覚える</a:t>
+            <a:t>ロ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2849,16 +2867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>620806</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>231962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>668431</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:colOff>267021</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>206187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2873,8 +2891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1987924" y="1643903"/>
-          <a:ext cx="731183" cy="500903"/>
+          <a:off x="2308092" y="1782535"/>
+          <a:ext cx="304480" cy="383081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2909,16 +2927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>145596</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2933,8 +2951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="5095875"/>
-          <a:ext cx="733425" cy="504825"/>
+          <a:off x="2186667" y="5388429"/>
+          <a:ext cx="262619" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5670,16 +5688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>598955</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
+      <xdr:colOff>217955</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>31374</xdr:rowOff>
+      <xdr:rowOff>72196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5694,8 +5712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1966073" y="12180794"/>
-          <a:ext cx="712133" cy="333933"/>
+          <a:off x="2259026" y="12777108"/>
+          <a:ext cx="244688" cy="276302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6457,16 +6475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>654984</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137914</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>87403</xdr:rowOff>
+      <xdr:rowOff>73796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6481,8 +6499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2022102" y="15531352"/>
-          <a:ext cx="712133" cy="333933"/>
+          <a:off x="2178985" y="16192500"/>
+          <a:ext cx="243088" cy="291510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7691,15 +7709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>184897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>48183</xdr:rowOff>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>211468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7714,8 +7732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="19958797"/>
-          <a:ext cx="716616" cy="339536"/>
+          <a:off x="2140403" y="20574000"/>
+          <a:ext cx="227240" cy="211468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7752,13 +7770,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>203947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7774,8 +7792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21882847"/>
-          <a:ext cx="4714875" cy="3106831"/>
+          <a:off x="0" y="25431590"/>
+          <a:ext cx="4682218" cy="3195277"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7812,13 +7830,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7872,13 +7890,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>493620</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>233643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7940,13 +7958,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8000,13 +8018,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8060,13 +8078,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8120,13 +8138,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8180,13 +8198,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333937</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8242,13 +8260,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>121585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>102534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8294,6 +8312,989 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>コントローラーの画像</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>50903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="正方形/長方形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C21DAC-3067-4834-9035-9C9B312DF908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156732" y="24506465"/>
+          <a:ext cx="210911" cy="282224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEB275A-2CD8-4660-A751-0E208CC73B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18277114"/>
+          <a:ext cx="4682218" cy="3195278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1937B80-2E0E-4616-842E-A9CE97B5164A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032782" y="19275879"/>
+          <a:ext cx="604157" cy="1157967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="正方形/長方形 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAA8B05-B7F2-48B7-A6B8-6F0A2B8DC5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="18334264"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="正方形/長方形 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38606281-2EAF-44B9-8090-2CE0BD1B0FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2564946" y="18541093"/>
+          <a:ext cx="604158" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="正方形/長方形 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4B7BBA-1EE5-4C1D-ADAC-14DE5F7BA3EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292929" y="18945225"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>83004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>284070</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>59471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="正方形/長方形 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8EB315-37CD-43E1-A0A2-3341F6DD41D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1913164" y="22861361"/>
+          <a:ext cx="411977" cy="711253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410137</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F641138-3EB9-403C-A9AD-F64DFCBBBFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1090494" y="20876079"/>
+          <a:ext cx="3572673" cy="556532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロボを射影機の前に誘導してレントゲンを写すのじゃ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>169210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5001FD-A7EC-43F5-9568-D8D9DB8B7113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="20743210"/>
+          <a:ext cx="966107" cy="715735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラーの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>211468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D082E21-7B8D-45E9-B7AF-E2AC0AB640C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2140403" y="20574000"/>
+          <a:ext cx="227240" cy="211468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275756</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>128550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="矢印: 上 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8B2053-4432-425C-9EBF-F6042FDDE17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1306285" y="21621750"/>
+          <a:ext cx="1690900" cy="550371"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>284070</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>5042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="正方形/長方形 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924A8249-00C6-4B23-BA46-A322B7A79A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1913164" y="18643146"/>
+          <a:ext cx="411977" cy="711253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405493</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>103014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="正方形/長方形 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BE5695-B220-40BF-A0BA-F271995310C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446564" y="23445107"/>
+          <a:ext cx="206829" cy="171050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>555653</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>57871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44955C39-5EB9-40F6-B4B3-89E5F5227F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2596724" y="23159357"/>
+          <a:ext cx="2764490" cy="411657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>103014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508908</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>42424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線コネクタ 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55174D7-8515-4F2B-AC46-EC0C57353F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="154" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2217963" y="23616157"/>
+          <a:ext cx="332016" cy="1408981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262149</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>114942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="矢印: 上 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A722A1-9B3F-4298-995C-AC81BEA5DD3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1292678" y="25527000"/>
+          <a:ext cx="1690900" cy="550371"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8565,10 +9566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P93" sqref="P93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8622,7 +9623,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8660,7 +9661,7 @@
     </row>
     <row r="37" spans="8:10">
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="8:10">
@@ -8736,7 +9737,7 @@
     </row>
     <row r="67" spans="10:12">
       <c r="L67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="10:12">
@@ -8746,12 +9747,12 @@
     </row>
     <row r="77" spans="10:12">
       <c r="L77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="10:12">
       <c r="L78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="10:12">
@@ -8812,12 +9813,12 @@
     </row>
     <row r="89" spans="9:12">
       <c r="L89" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="9:12">
       <c r="L90" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="9:12">
@@ -8825,39 +9826,69 @@
         <v>31</v>
       </c>
     </row>
+    <row r="93" spans="9:12">
+      <c r="I93" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="94" spans="9:12">
-      <c r="I94" t="s">
+      <c r="L94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="9:12">
+      <c r="L95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="9:12">
+      <c r="L96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12">
+      <c r="L97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12">
+      <c r="L98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12">
+      <c r="I109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="9:12">
+      <c r="I110" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="9:12">
-      <c r="I95" t="s">
+    <row r="111" spans="9:12">
+      <c r="I111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="9:12">
+      <c r="I112" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="9:12">
-      <c r="I96" t="s">
+    <row r="113" spans="9:9">
+      <c r="I113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="9:9">
-      <c r="I97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9">
-      <c r="I98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="9:9">
-      <c r="I99" t="s">
+    <row r="115" spans="9:9">
+      <c r="I115" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="9:9">
-      <c r="I100" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/チェックリスト/仕様書/チュートリアル.xlsx
+++ b/チェックリスト/仕様書/チュートリアル.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB1A8E-9290-4DF4-A8D7-0E10765E2204}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9DBE59-6373-45DB-A849-7C7E9275609F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>開始時</t>
     <rPh sb="0" eb="2">
@@ -29,10 +29,6 @@
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロボット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -294,13 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロボットはちょっとずつ前進する</t>
-    <rPh sb="11" eb="13">
-      <t>ゼンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青い枠を出す</t>
     <rPh sb="0" eb="1">
       <t>アオ</t>
@@ -591,17 +580,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロボットをプレイヤーから奥のほうに出現させる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Aを押したら</t>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -714,6 +692,160 @@
     <t>ドローンは移動しないようにする</t>
     <rPh sb="5" eb="7">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットがミサイルを発射</t>
+    <rPh sb="10" eb="12">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストを表示（ドローンに発見されるとミサイルを撃たれること　ダメージの説明　ダメージの説明のテキストの時ライフＵＩを点滅させる）</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットは停止させる</t>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の行動を表示</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットは停止させておく</t>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aを押したらテキストが進む</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←ダミーの弱点があることをここで伝える</t>
+    <rPh sb="5" eb="7">
+      <t>ジャクテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｙで武器を切り替えさせる</t>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の入力は受け付けないようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時にＯＫのＳＥを鳴らす</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット出現</t>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時点ではロボットはミサイルとドローン射出禁止</t>
+    <rPh sb="2" eb="4">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャシュツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは新しい射撃フェーズに差し換える</t>
+    <rPh sb="3" eb="4">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -782,6 +914,66 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0F505E-6C68-4BFB-8F09-549A74484FD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66674" y="228600"/>
+          <a:ext cx="4714875" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -807,66 +999,6 @@
         <a:xfrm>
           <a:off x="44824" y="10600765"/>
           <a:ext cx="4701428" cy="2740959"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0F505E-6C68-4BFB-8F09-549A74484FD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66674" y="228600"/>
-          <a:ext cx="4714875" cy="2771775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1507,15 +1639,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロ</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7012,8 +7136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17577547"/>
-          <a:ext cx="4701428" cy="3070412"/>
+          <a:off x="0" y="18277114"/>
+          <a:ext cx="4682218" cy="3195278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7770,13 +7894,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>203947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7830,13 +7954,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7890,13 +8014,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>493620</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>233643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7958,13 +8082,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8018,13 +8142,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8078,13 +8202,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8138,13 +8262,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8198,13 +8322,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333937</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8260,13 +8384,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>121585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>102534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8321,13 +8445,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>115661</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>50903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8381,13 +8505,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8403,7 +8527,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18277114"/>
+          <a:off x="0" y="22195971"/>
           <a:ext cx="4682218" cy="3195278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8441,13 +8565,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8501,13 +8625,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8561,13 +8685,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8621,13 +8745,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8681,13 +8805,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>83004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>284070</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>59471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8749,13 +8873,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410137</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8811,13 +8935,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>169210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>150159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8872,13 +8996,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99332</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>211468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9063,13 +9187,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>405493</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>103014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9131,13 +9255,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>555653</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>57871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9184,13 +9308,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>103014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>508908</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>42424</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9241,13 +9365,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>262149</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>114942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9264,6 +9388,1309 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="1292678" y="25527000"/>
+          <a:ext cx="1690900" cy="550371"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 46693"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E51C8-B13F-484C-8A61-D183DAF885E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="122464" y="775607"/>
+          <a:ext cx="1374321" cy="367394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次にすることの枠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>225239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C53A620-9203-483D-BFDD-201EC013B24F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1333500" y="884464"/>
+          <a:ext cx="4122964" cy="75561"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14280DBB-6526-42FB-B2FF-6D00B1376DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108857" y="312964"/>
+          <a:ext cx="1143000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB125785-EACC-4E13-9C94-99DBE2C19420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4150179" y="285750"/>
+          <a:ext cx="571500" cy="421821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166006</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A608CEA-9A44-489A-819B-36A15FCA27B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="166006" y="4016829"/>
+          <a:ext cx="1766208" cy="636814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左スティックで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青いマーカーに移動しろ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100692</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="テキスト ボックス 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E2631C-28CE-46C6-B5D8-47B9EEAE66C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100692" y="7843156"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>緑色のマーカー二つを画面内にいれろ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>117020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146959</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>193220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="テキスト ボックス 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD9FAB0-40DE-4470-9B4D-7465C9943120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11138806"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>緑色のマーカー二つを画面内にいれろ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>193222</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>24491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340181</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>100691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="テキスト ボックス 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C663C5-1FC3-4214-933F-69640A3D35A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="193222" y="14475277"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青い枠にビーコンを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>打ち込め</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146959</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>198663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="テキスト ボックス 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BB28B3-2AEA-4825-B7FD-55F3C8C1A6D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18492106"/>
+          <a:ext cx="1507673" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青い枠にビーコンを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>打ち込め</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>29933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5802A283-7AE6-40A1-B311-6BD2D395C022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22563362"/>
+          <a:ext cx="1660071" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドローンを撃ち落とせ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="正方形/長方形 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93794DF1-CF79-4DEA-965F-0F397D050968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18277114"/>
+          <a:ext cx="4682218" cy="3195278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD31106-6A95-4DFB-82B9-7F54F66E6C24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032782" y="19275879"/>
+          <a:ext cx="604157" cy="1157967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="正方形/長方形 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79444DF-4C52-4A6B-A013-4087240A151E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="18334264"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="正方形/長方形 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3378B77F-7F1A-4B4F-ABFE-AA4C3125806A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2564946" y="18541093"/>
+          <a:ext cx="604158" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="正方形/長方形 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D765FA1-4B03-4641-A8DF-F492A801E7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292929" y="18945225"/>
+          <a:ext cx="604157" cy="1157968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410137</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="正方形/長方形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0548606-A99F-458D-A343-6A1C8DF31C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1090494" y="20876079"/>
+          <a:ext cx="3572673" cy="556532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロボを射影機の前に誘導してレントゲンを写すのじゃ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>169210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="正方形/長方形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2729AD-793C-46A5-AC11-B6174E214AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="20743210"/>
+          <a:ext cx="966107" cy="715735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラーの画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>211468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="正方形/長方形 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3D5366-BF1F-4440-8EE1-D643E736E923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2140403" y="20574000"/>
+          <a:ext cx="227240" cy="211468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="テキスト ボックス 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADED0530-A5A7-4BE2-82BA-9BA2A7C48BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22655893"/>
+          <a:ext cx="1660071" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>Ｙで武器を切り替えろ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278478</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>240128</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="矢印: 上 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BBE634-4AEA-4F63-9110-0F611379319D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1309007" y="26142043"/>
           <a:ext cx="1690900" cy="550371"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -9566,329 +10993,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="H2" t="s">
+    <row r="4" spans="1:10">
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1</v>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1"/>
+    <row r="10" spans="1:10">
+      <c r="H10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.5" customHeight="1"/>
-    <row r="10" spans="1:16">
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:10">
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="I18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="I20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="I21" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="I22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="8:10">
       <c r="J33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="8:10">
       <c r="J34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="8:10">
       <c r="J35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="8:10">
       <c r="J36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="J37" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="J38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="8:10">
       <c r="H43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="9:12">
       <c r="I49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="9:12">
       <c r="I55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="9:12">
       <c r="I56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="9:12">
       <c r="J58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="9:12">
       <c r="L59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="9:12">
       <c r="L60" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="9:12">
       <c r="I61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="9:12">
       <c r="L62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="9:12">
       <c r="I63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="9:12">
       <c r="L64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="10:12">
       <c r="L65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="10:12">
       <c r="L66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="10:12">
       <c r="L67" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="76" spans="10:12">
-      <c r="L76" t="s">
-        <v>33</v>
+    <row r="68" spans="10:12">
+      <c r="L68" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="10:12">
       <c r="L77" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="10:12">
       <c r="L78" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="10:12">
       <c r="L79" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="10:12">
       <c r="J80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14">
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="10:14">
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="9:12">
-      <c r="L81" t="s">
-        <v>25</v>
+    <row r="83" spans="10:14">
+      <c r="L83" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="82" spans="9:12">
-      <c r="J82" t="s">
-        <v>29</v>
-      </c>
-      <c r="L82" t="s">
-        <v>26</v>
+    <row r="84" spans="10:14">
+      <c r="L84" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="83" spans="9:12">
-      <c r="L83" t="s">
+    <row r="85" spans="10:14">
+      <c r="L85" t="s">
         <v>32</v>
       </c>
+      <c r="N85" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="84" spans="9:12">
-      <c r="L84" t="s">
+    <row r="86" spans="10:14">
+      <c r="L86" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="9:12">
-      <c r="L85" t="s">
+    <row r="87" spans="10:14">
+      <c r="L87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="9:12">
-      <c r="L86" t="s">
+    <row r="88" spans="10:14">
+      <c r="L88" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="9:12">
-      <c r="L87" t="s">
+    <row r="89" spans="10:14">
+      <c r="L89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14">
+      <c r="L90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14">
+      <c r="L93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14">
+      <c r="L94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14">
+      <c r="L95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14">
+      <c r="L96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12">
+      <c r="L97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="9:12">
+      <c r="L113" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="9:12">
+      <c r="L114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="9:12">
+      <c r="I115" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="9:12">
+      <c r="L116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="9:12">
+      <c r="L117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="9:12">
+      <c r="L118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="9:12">
+      <c r="L119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12">
+      <c r="L120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="9:12">
+      <c r="L121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9">
+      <c r="I131" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="9:12">
-      <c r="L88" t="s">
+    <row r="132" spans="9:9">
+      <c r="I132" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="9:12">
-      <c r="L89" t="s">
-        <v>54</v>
+    <row r="133" spans="9:9">
+      <c r="I133" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="90" spans="9:12">
-      <c r="L90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="9:12">
-      <c r="L91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="9:12">
-      <c r="I93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="9:12">
-      <c r="L94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="9:12">
-      <c r="L95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="9:12">
-      <c r="L96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="9:12">
-      <c r="L97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="9:12">
-      <c r="L98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="9:12">
-      <c r="I109" t="s">
+    <row r="134" spans="9:9">
+      <c r="I134" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="9:12">
-      <c r="I110" t="s">
+    <row r="135" spans="9:9">
+      <c r="I135" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="9:12">
-      <c r="I111" t="s">
+    <row r="136" spans="9:9">
+      <c r="I136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="9:12">
-      <c r="I112" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9">
-      <c r="I113" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="9:9">
-      <c r="I114" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="9:9">
-      <c r="I115" t="s">
-        <v>44</v>
+    <row r="139" spans="9:9">
+      <c r="I139" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
